--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.2453389401238</v>
+        <v>86.63654016747982</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.16681880839199</v>
+        <v>118.5399363914971</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.03861715372021</v>
+        <v>107.2266512341691</v>
       </c>
       <c r="AD2" t="n">
-        <v>62245.3389401238</v>
+        <v>86636.54016747982</v>
       </c>
       <c r="AE2" t="n">
-        <v>85166.818808392</v>
+        <v>118539.9363914971</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118889255433086e-06</v>
+        <v>7.621023507190934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>77038.61715372022</v>
+        <v>107226.6512341691</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.07167512827706</v>
+        <v>85.46287635563307</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.56096020263104</v>
+        <v>116.9340777857362</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.58601943945587</v>
+        <v>105.7740535199048</v>
       </c>
       <c r="AD3" t="n">
-        <v>61071.67512827706</v>
+        <v>85462.87635563307</v>
       </c>
       <c r="AE3" t="n">
-        <v>83560.96020263103</v>
+        <v>116934.0777857362</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.283726987759981e-06</v>
+        <v>7.926016468892503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.548177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75586.01943945586</v>
+        <v>105774.0535199048</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.65453899468363</v>
+        <v>81.01137105952559</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.88548379124427</v>
+        <v>110.8433318530516</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.35676393469801</v>
+        <v>100.2645998306181</v>
       </c>
       <c r="AD2" t="n">
-        <v>57654.53899468364</v>
+        <v>81011.37105952558</v>
       </c>
       <c r="AE2" t="n">
-        <v>78885.48379124427</v>
+        <v>110843.3318530516</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.622309286419607e-06</v>
+        <v>8.810834871995137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>71356.76393469801</v>
+        <v>100264.5998306181</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.69026869797101</v>
+        <v>72.61715368035247</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.72490604625109</v>
+        <v>99.35799330813828</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.97502027624159</v>
+        <v>89.87540587665373</v>
       </c>
       <c r="AD2" t="n">
-        <v>51690.26869797101</v>
+        <v>72617.15368035248</v>
       </c>
       <c r="AE2" t="n">
-        <v>70724.9060462511</v>
+        <v>99357.99330813828</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.917537774483834e-06</v>
+        <v>1.04730685255856e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63975.02027624159</v>
+        <v>89875.40587665373</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.07449852223273</v>
+        <v>75.84749841404093</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.98711447660064</v>
+        <v>103.7778934855202</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.92588811253789</v>
+        <v>93.87347698447655</v>
       </c>
       <c r="AD2" t="n">
-        <v>54074.49852223273</v>
+        <v>75847.49841404092</v>
       </c>
       <c r="AE2" t="n">
-        <v>73987.11447660063</v>
+        <v>103777.8934855202</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.826039663297631e-06</v>
+        <v>9.798529031209089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>66925.8881125379</v>
+        <v>93873.47698447655</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.07171600135437</v>
+        <v>70.16469259534108</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.51033084123591</v>
+        <v>96.0024278566803</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.97180102061652</v>
+        <v>86.84009088231613</v>
       </c>
       <c r="AD2" t="n">
-        <v>50071.71600135438</v>
+        <v>70164.69259534108</v>
       </c>
       <c r="AE2" t="n">
-        <v>68510.33084123592</v>
+        <v>96002.4278566803</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.837711266015074e-06</v>
+        <v>1.077263806810141e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.763020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61971.80102061653</v>
+        <v>86840.09088231613</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.14879124473273</v>
+        <v>82.90325189991609</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.92998564151718</v>
+        <v>113.4318866827647</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.20614139785789</v>
+        <v>102.6061066204437</v>
       </c>
       <c r="AD2" t="n">
-        <v>59148.79124473273</v>
+        <v>82903.25189991608</v>
       </c>
       <c r="AE2" t="n">
-        <v>80929.98564151718</v>
+        <v>113431.8866827647</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.439172289970509e-06</v>
+        <v>8.39342568463344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.509114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73206.14139785789</v>
+        <v>102606.1066204437</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.91660836739775</v>
+        <v>82.50047682198891</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.61230278556199</v>
+        <v>112.8807920519626</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.91877774780427</v>
+        <v>102.107607687739</v>
       </c>
       <c r="AD3" t="n">
-        <v>58916.60836739775</v>
+        <v>82500.47682198891</v>
       </c>
       <c r="AE3" t="n">
-        <v>80612.30278556199</v>
+        <v>112880.7920519626</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485619561895649e-06</v>
+        <v>8.481246498896141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72918.77774780427</v>
+        <v>102107.607687739</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.41673985447616</v>
+        <v>78.64482509972882</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.61416358156933</v>
+        <v>107.60531926622</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.1611627064336</v>
+        <v>97.33561862049346</v>
       </c>
       <c r="AD2" t="n">
-        <v>49416.73985447616</v>
+        <v>78644.82509972883</v>
       </c>
       <c r="AE2" t="n">
-        <v>67614.16358156933</v>
+        <v>107605.31926622</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.680455751355166e-06</v>
+        <v>1.073025722190494e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>61161.1627064336</v>
+        <v>97335.61862049346</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.23319576658113</v>
+        <v>78.8531848993026</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.94073928131769</v>
+        <v>107.8904063361823</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.59762311133215</v>
+        <v>97.59349738062086</v>
       </c>
       <c r="AD2" t="n">
-        <v>56233.19576658113</v>
+        <v>78853.18489930261</v>
       </c>
       <c r="AE2" t="n">
-        <v>76940.73928131768</v>
+        <v>107890.4063361823</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.698946244803904e-06</v>
+        <v>9.209869700687827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.444010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>69597.62311133216</v>
+        <v>97593.49738062086</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.73371422426654</v>
+        <v>80.85487655568318</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.99381483332417</v>
+        <v>110.6292091688442</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.45475601416541</v>
+        <v>100.0709127148683</v>
       </c>
       <c r="AD2" t="n">
-        <v>57733.71422426654</v>
+        <v>80854.87655568318</v>
       </c>
       <c r="AE2" t="n">
-        <v>78993.81483332417</v>
+        <v>110629.2091688442</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555035760450907e-06</v>
+        <v>8.757981291767571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.483072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71454.75601416541</v>
+        <v>100070.9127148683</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.04758918719894</v>
+        <v>85.2333000659377</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.52800475545126</v>
+        <v>116.619961377984</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.55620921390165</v>
+        <v>105.4899159412433</v>
       </c>
       <c r="AD2" t="n">
-        <v>61047.58918719894</v>
+        <v>85233.3000659377</v>
       </c>
       <c r="AE2" t="n">
-        <v>83528.00475545126</v>
+        <v>116619.961377984</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243763623598492e-06</v>
+        <v>7.905809756467838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75556.20921390165</v>
+        <v>105489.9159412432</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.58257466951206</v>
+        <v>84.7682855482508</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.89175137735971</v>
+        <v>115.9837079998925</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.98067896522775</v>
+        <v>104.9143856925693</v>
       </c>
       <c r="AD3" t="n">
-        <v>60582.57466951205</v>
+        <v>84768.2855482508</v>
       </c>
       <c r="AE3" t="n">
-        <v>82891.75137735972</v>
+        <v>115983.7079998925</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.316865434201811e-06</v>
+        <v>8.041992885110881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.548177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>74980.67896522775</v>
+        <v>104914.3856925693</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.75932747314882</v>
+        <v>76.8297022507744</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.92412765976457</v>
+        <v>105.1217881067133</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.77347407260721</v>
+        <v>95.08911218919143</v>
       </c>
       <c r="AD2" t="n">
-        <v>54759.32747314882</v>
+        <v>76829.7022507744</v>
       </c>
       <c r="AE2" t="n">
-        <v>74924.12765976456</v>
+        <v>105121.7881067133</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.80865676898632e-06</v>
+        <v>9.638939774364542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.444010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67773.47407260722</v>
+        <v>95089.11218919142</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.47544043742374</v>
+        <v>73.76593845116754</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.79921265950222</v>
+        <v>100.9298113123739</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.94679657412317</v>
+        <v>91.297211776626</v>
       </c>
       <c r="AD2" t="n">
-        <v>52475.44043742374</v>
+        <v>73765.93845116755</v>
       </c>
       <c r="AE2" t="n">
-        <v>71799.21265950221</v>
+        <v>100929.8113123739</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.908059399768998e-06</v>
+        <v>1.026796720412781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>64946.79657412317</v>
+        <v>91297.21177662601</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.99452865772635</v>
+        <v>71.52529906351405</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.77296382930453</v>
+        <v>97.8640696521546</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.11393008842081</v>
+        <v>88.52406019766164</v>
       </c>
       <c r="AD2" t="n">
-        <v>50994.52865772635</v>
+        <v>71525.29906351406</v>
       </c>
       <c r="AE2" t="n">
-        <v>69772.96382930453</v>
+        <v>97864.06965215459</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.870080410835894e-06</v>
+        <v>1.05868524007623e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63113.93008842081</v>
+        <v>88524.06019766165</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.48300540022076</v>
+        <v>77.42250873628106</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.01902807665789</v>
+        <v>105.9328920929595</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.38212434445153</v>
+        <v>95.82280554938214</v>
       </c>
       <c r="AD2" t="n">
-        <v>58483.00540022076</v>
+        <v>77422.50873628106</v>
       </c>
       <c r="AE2" t="n">
-        <v>80019.02807665789</v>
+        <v>105932.8920929595</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.379663416510307e-06</v>
+        <v>1.041714752732532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>72382.12434445153</v>
+        <v>95822.80554938214</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.9863454002096</v>
+        <v>79.86226580192425</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.97123183666449</v>
+        <v>109.2710753446561</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.52976690350236</v>
+        <v>98.84239727670747</v>
       </c>
       <c r="AD2" t="n">
-        <v>56986.3454002096</v>
+        <v>79862.26580192425</v>
       </c>
       <c r="AE2" t="n">
-        <v>77971.23183666449</v>
+        <v>109271.0753446561</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.629829536337696e-06</v>
+        <v>8.984546244730049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70529.76690350236</v>
+        <v>98842.39727670747</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.95951790178865</v>
+        <v>83.93317931003725</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.03925762043635</v>
+        <v>114.8410788024823</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.20954601598237</v>
+        <v>103.8808074220694</v>
       </c>
       <c r="AD2" t="n">
-        <v>59959.51790178865</v>
+        <v>83933.17931003725</v>
       </c>
       <c r="AE2" t="n">
-        <v>82039.25762043634</v>
+        <v>114841.0788024823</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.358537209860598e-06</v>
+        <v>8.178325351454506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>74209.54601598237</v>
+        <v>103880.8074220694</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.87781060858828</v>
+        <v>83.85147201683688</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.92746209720828</v>
+        <v>114.7292832792542</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.10842010058516</v>
+        <v>103.7796815066722</v>
       </c>
       <c r="AD3" t="n">
-        <v>59877.81060858828</v>
+        <v>83851.47201683688</v>
       </c>
       <c r="AE3" t="n">
-        <v>81927.46209720828</v>
+        <v>114729.2832792542</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.372154673165954e-06</v>
+        <v>8.203877053782696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.53515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>74108.42010058516</v>
+        <v>103779.6815066722</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.51434689956079</v>
+        <v>94.82433358866841</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.37610795071555</v>
+        <v>129.7428365703138</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.5598618586036</v>
+        <v>117.3603623432923</v>
       </c>
       <c r="AD2" t="n">
-        <v>67514.3468995608</v>
+        <v>94824.33358866841</v>
       </c>
       <c r="AE2" t="n">
-        <v>92376.10795071555</v>
+        <v>129742.8365703138</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.740593605865714e-06</v>
+        <v>9.35494073637325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83559.8618586036</v>
+        <v>117360.3623432923</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.35910563413188</v>
+        <v>74.98699958281743</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.00828236619478</v>
+        <v>102.6005210221116</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.04047436494936</v>
+        <v>92.80847129652271</v>
       </c>
       <c r="AD2" t="n">
-        <v>53359.10563413188</v>
+        <v>74986.99958281743</v>
       </c>
       <c r="AE2" t="n">
-        <v>73008.28236619478</v>
+        <v>102600.5210221116</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859748145185734e-06</v>
+        <v>1.000759896600628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66040.47436494936</v>
+        <v>92808.47129652271</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.49667177625597</v>
+        <v>77.84869423321057</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.93299466461012</v>
+        <v>106.5160178918353</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.68605622646437</v>
+        <v>96.3502786404356</v>
       </c>
       <c r="AD2" t="n">
-        <v>55496.67177625596</v>
+        <v>77848.69423321057</v>
       </c>
       <c r="AE2" t="n">
-        <v>75932.99466461012</v>
+        <v>106516.0178918353</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.74857688338778e-06</v>
+        <v>9.407805074947085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68686.05622646437</v>
+        <v>96350.2786404356</v>
       </c>
     </row>
   </sheetData>
